--- a/data/evaluation/evaluation_Center_Spring_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Sweet Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.2506411974269</v>
+        <v>285.7880299750047</v>
       </c>
       <c r="C4" t="n">
-        <v>375404.0611011902</v>
+        <v>367200.6593389365</v>
       </c>
       <c r="D4" t="n">
-        <v>612.7022613808359</v>
+        <v>605.9708403371704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0929770919673627</v>
+        <v>0.1127975310439495</v>
       </c>
     </row>
     <row r="5">
